--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177128.8087531059</v>
+        <v>176083.4573446011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147075</v>
+        <v>22099924.35763669</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516637</v>
+        <v>7423353.42871887</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5791275.17203257</v>
+        <v>5582454.108743912</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>4.050025252207836</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -674,10 +676,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>52.73509820686085</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.539296340782</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,10 +828,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135463</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>165.5030803912822</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>111.4200385268269</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>199.1362892344166</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>45.64188980594272</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.6481106064103</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358922</v>
       </c>
       <c r="G10" t="n">
-        <v>105.3480885970127</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>406.9306587516072</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.55215146471129</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>108.5103196251636</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>294.068683532556</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.6202690004476</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12.76407305958203</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>327.5057043920406</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1907,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>173.630778437546</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>268.3727301458094</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2336,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>185.5573750678089</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2567,13 +2569,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>163.4674767794823</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>232.2523964141384</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S28" t="n">
-        <v>26.41040541581688</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2795,10 +2797,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>246.4712383045172</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>347.2486205873857</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>320.4201683984647</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3092,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>185.1447535886775</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>85.95537284539671</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>83.18350266509944</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>188.120198496572</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3515,13 +3517,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>28.60468344882636</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.13954148002296</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>59.82063420043769</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>148.8597651552996</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>46.68188763447793</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>173.306689271091</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.8196829137313</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2048.221573682272</v>
+        <v>2243.76125594652</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.079100865695</v>
+        <v>1805.618783129943</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>1369.708998304388</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>935.934253462683</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>508.0668238718908</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>106.6689924951547</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4361,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G4" t="n">
         <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1406.107276723079</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1178.687606037187</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C5" t="n">
-        <v>648.8602641703436</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D5" t="n">
-        <v>648.8602641703436</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4568,25 +4570,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
         <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
+        <v>714.2412710704069</v>
+      </c>
+      <c r="N5" t="n">
+        <v>714.2412710704069</v>
+      </c>
+      <c r="O5" t="n">
         <v>1375.081325612185</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2035.921380153963</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
         <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.8681021663376</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>794.3063906495626</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4283978510853</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4753,22 +4755,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2468.913059527977</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>2190.480058781082</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.524550651513</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.498146237804</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>1386.106391571217</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.686720885325</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.120736676713</v>
+        <v>1216.583628727544</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.120736676713</v>
+        <v>778.4411559109678</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.120736676713</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E8" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2623.957907435526</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2364.735604752543</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2002.118654686369</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1597.263200097403</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1178.120736676713</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.120736676713</v>
+        <v>1216.583628727544</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.7186013536157</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C10" t="n">
-        <v>900.7186013536157</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D10" t="n">
-        <v>734.8406085551384</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E10" t="n">
-        <v>565.0826048058757</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F10" t="n">
-        <v>388.3755507676319</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.33055796836</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425082</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1092.537220072603</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2265.205371842461</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.062899025885</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D11" t="n">
-        <v>1391.153114200329</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E11" t="n">
-        <v>957.3783693586242</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F11" t="n">
-        <v>529.510939767832</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G11" t="n">
-        <v>128.1131083910959</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H11" t="n">
         <v>53.81800590148855</v>
@@ -5039,52 +5041,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>2035.921380153963</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X11" t="n">
-        <v>2265.205371842461</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y11" t="n">
-        <v>2265.205371842461</v>
+        <v>1762.411034605609</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P12" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q12" t="n">
         <v>1599.468199913098</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G13" t="n">
         <v>53.40121652862856</v>
@@ -5197,19 +5199,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5224,25 +5226,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U13" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>752.2549115535338</v>
+        <v>771.4407337121271</v>
       </c>
       <c r="C14" t="n">
-        <v>752.2549115535338</v>
+        <v>771.4407337121271</v>
       </c>
       <c r="D14" t="n">
-        <v>455.2158372782247</v>
+        <v>771.4407337121271</v>
       </c>
       <c r="E14" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F14" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
         <v>53.40121652862856</v>
@@ -5291,37 +5293,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>2410.838523748444</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V14" t="n">
-        <v>2410.838523748444</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W14" t="n">
-        <v>2005.983069159478</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X14" t="n">
-        <v>1586.840605738788</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y14" t="n">
-        <v>1178.554482038442</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5434,19 +5436,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K16" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O16" t="n">
         <v>2154.361157596754</v>
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1217.066548608396</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="C17" t="n">
-        <v>1217.066548608396</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="D17" t="n">
-        <v>1204.173545517909</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="E17" t="n">
-        <v>770.3988006762045</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="F17" t="n">
-        <v>342.5313710854123</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L17" t="n">
-        <v>1810.336013065103</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M17" t="n">
-        <v>1810.336013065103</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="N17" t="n">
-        <v>1810.336013065103</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="O17" t="n">
-        <v>1810.336013065103</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P17" t="n">
-        <v>2471.176067606882</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5546,19 +5548,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W17" t="n">
-        <v>1643.366119093304</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>1643.366119093304</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y17" t="n">
-        <v>1643.366119093304</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="18">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1984.354610587528</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C20" t="n">
-        <v>1546.212137770951</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D20" t="n">
-        <v>1110.302352945396</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E20" t="n">
-        <v>676.5276081036909</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F20" t="n">
-        <v>248.6601785128987</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
-        <v>73.27555382850876</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>73.27555382850876</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>508.1134519085666</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1342.463743866745</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>2244.090954005398</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>2244.090954005398</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>2244.090954005398</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>2268.129561990447</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P20" t="n">
-        <v>3096.439436823843</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>3642.938222782438</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>3642.938222782438</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U20" t="n">
-        <v>3642.938222782438</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V20" t="n">
-        <v>3642.938222782438</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W20" t="n">
-        <v>3238.082768193472</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X20" t="n">
-        <v>2818.940304772782</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y20" t="n">
-        <v>2410.654181072436</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2485.870206294922</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>2379.413745131565</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>2284.323456278118</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>2190.203041605072</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>2106.819203221233</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>2021.434113487417</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>1979.69846130363</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>2005.762134464087</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>2330.3204594303</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>2985.026506056023</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L21" t="n">
-        <v>2985.026506056023</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M21" t="n">
-        <v>2985.026506056023</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N21" t="n">
-        <v>2985.026506056023</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O21" t="n">
-        <v>2985.026506056023</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P21" t="n">
-        <v>2985.026506056023</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q21" t="n">
-        <v>3525.765444688098</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>3642.938222782438</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>3579.482785230821</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>3449.304141561423</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>3272.967594561391</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>3073.850076623391</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>2888.527322356585</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>2733.659886595465</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>2607.174107374686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.35480153258</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>750.793090015805</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>584.9150972173277</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>415.1570934680649</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>238.4500394298211</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2671.279205315764</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.399758894219</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.966758147325</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1860.011250017755</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.984845604047</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.593090937459</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.173420251567</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2243.76125594652</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C26" t="n">
-        <v>1805.618783129943</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D26" t="n">
-        <v>1369.708998304388</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E26" t="n">
-        <v>935.934253462683</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F26" t="n">
-        <v>508.0668238718908</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W26" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X26" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y26" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.0414241659225</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>701.4797126491475</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>535.6017198506702</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S28" t="n">
-        <v>2621.965827949106</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2376.086381527562</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>2097.653380780667</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>1810.697872651097</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1538.671468237389</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1293.279713570802</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>1065.86004288491</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2078.225803160042</v>
+        <v>1208.958062865641</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.083330343465</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.173545517909</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="E29" t="n">
-        <v>770.3988006762045</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F29" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G29" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L29" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6494,19 +6496,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U29" t="n">
-        <v>2327.186649932281</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V29" t="n">
-        <v>2327.186649932281</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W29" t="n">
-        <v>2078.225803160042</v>
+        <v>1559.714245277142</v>
       </c>
       <c r="X29" t="n">
-        <v>2078.225803160042</v>
+        <v>1208.958062865641</v>
       </c>
       <c r="Y29" t="n">
-        <v>2078.225803160042</v>
+        <v>1208.958062865641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C30" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D30" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E30" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F30" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G30" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P30" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S30" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T30" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U30" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V30" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W30" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X30" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y30" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="31">
@@ -6610,13 +6612,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6643,7 +6645,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
         <v>2651.821657388744</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1068.002727591033</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C32" t="n">
-        <v>1068.002727591033</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D32" t="n">
-        <v>1068.002727591033</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E32" t="n">
-        <v>1068.002727591033</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F32" t="n">
         <v>744.3459918350084</v>
@@ -6692,19 +6694,19 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M32" t="n">
         <v>1293.567921177998</v>
@@ -6716,34 +6718,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V32" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W32" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X32" t="n">
-        <v>1902.588421776288</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y32" t="n">
-        <v>1494.302298075941</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1043.799427915185</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6862,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6886,22 +6888,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2545.844385276825</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2267.41138452993</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1980.45587640036</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1708.429471986652</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1463.037717320064</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1235.618046634173</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>927.4534741707607</v>
+        <v>1437.776784721425</v>
       </c>
       <c r="C35" t="n">
-        <v>489.311001354184</v>
+        <v>1437.776784721425</v>
       </c>
       <c r="D35" t="n">
-        <v>53.40121652862856</v>
+        <v>1001.86699989587</v>
       </c>
       <c r="E35" t="n">
-        <v>53.40121652862856</v>
+        <v>568.092255054165</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>140.2248254633727</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M35" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N35" t="n">
-        <v>2035.921380153963</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O35" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6971,16 +6973,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V35" t="n">
-        <v>2586.037086365671</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W35" t="n">
-        <v>2181.181631776704</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X35" t="n">
-        <v>1762.039168356015</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y35" t="n">
-        <v>1353.753044655668</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J36" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N36" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O36" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P36" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q36" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2480.040423909638</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C38" t="n">
-        <v>2041.897951093061</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D38" t="n">
-        <v>1605.988166267505</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E38" t="n">
-        <v>1172.213421425801</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F38" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G38" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M38" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N38" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
-        <v>2123.562040472833</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W38" t="n">
-        <v>2670.060826431428</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X38" t="n">
-        <v>2670.060826431428</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2670.060826431428</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7321,13 +7323,13 @@
         <v>56.57247054885377</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.095648603258</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C41" t="n">
-        <v>1350.953175786681</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D41" t="n">
-        <v>915.0433909611256</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E41" t="n">
-        <v>481.2686461194208</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L41" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M41" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N41" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7445,16 +7447,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>2609.635943400683</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>2609.635943400683</v>
       </c>
       <c r="X41" t="n">
-        <v>2623.681342788512</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="Y41" t="n">
-        <v>2215.395219088166</v>
+        <v>2190.493479979994</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1043.799427915185</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7606,13 +7608,13 @@
         <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1708.429471986652</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1463.037717320064</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>1235.618046634173</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>771.6250763881362</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C44" t="n">
-        <v>771.6250763881362</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D44" t="n">
-        <v>771.6250763881362</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E44" t="n">
-        <v>771.6250763881362</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>1294.102365436318</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M44" t="n">
-        <v>1294.102365436318</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N44" t="n">
-        <v>1294.102365436318</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O44" t="n">
-        <v>1697.183430080417</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P44" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q44" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>2411.351690725274</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>2152.129388042291</v>
       </c>
       <c r="V44" t="n">
-        <v>771.6250763881362</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="W44" t="n">
-        <v>771.6250763881362</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="X44" t="n">
-        <v>771.6250763881362</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="Y44" t="n">
-        <v>771.6250763881362</v>
+        <v>1789.512437976118</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>778.554892512724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.8779941617646</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>711.8779941617646</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>546.0000013632873</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>376.2419976140245</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>199.5349435757807</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>1376.508038233231</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>1376.508038233231</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>1376.508038233231</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>1376.508038233231</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>1131.116283566643</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.6966128807517</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8143,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.5152066078568</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>667.5152066078567</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8386,7 +8388,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>88.52591951400984</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8474,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8626,7 +8628,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P11" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M11" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N11" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O11" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P14" t="n">
         <v>667.515206607857</v>
@@ -8948,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
+        <v>640.5448952297621</v>
+      </c>
+      <c r="M17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956097</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>24.28142220712016</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10349,13 +10351,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>640.5448952297625</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>427.5006617250921</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>233.5037548043551</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22603,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.36113619101522</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.9339170020056</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>247.5707420386848</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,7 +22995,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>44.28436272291265</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23021,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>172.224665049749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>199.5551518569328</v>
       </c>
     </row>
     <row r="9">
@@ -23179,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23188,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="G10" t="n">
-        <v>58.58727362741791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23258,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>26.83038933680371</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>212.6867015465046</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>137.4820034447439</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>4.816728392840105</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>418.7866139177179</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>96.08305090284369</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>223.7530746254228</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>146.578308640673</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>229.3936637186735</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>233.9163762834864</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,10 +24496,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>24.37768324201491</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S28" t="n">
-        <v>131.2385495991664</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>154.3356617385598</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>67.70241819909671</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24926,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>103.1685868964196</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>229.8062851978049</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>311.428480217572</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25211,7 +25213,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>275.8072779004123</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.9163762834866</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>330.3860971166854</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25685,16 +25687,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>299.1701463650741</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>120.4463752142718</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>376.9068676604064</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>44.55986558460071</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,19 +26073,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>83.60096904359801</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482780.8320297</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590036.4700873024</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752109.2252771084</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343186.8106381469</v>
+        <v>482780.8320297</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="C2" t="n">
         <v>152186.0528060573</v>
@@ -26329,31 +26331,31 @@
         <v>152186.0528060573</v>
       </c>
       <c r="H2" t="n">
-        <v>185996.0367868992</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618085</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="J2" t="n">
         <v>152186.0528060573</v>
       </c>
       <c r="K2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="L2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="M2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="N2" t="n">
         <v>152186.0528060574</v>
       </c>
       <c r="O2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="P2" t="n">
-        <v>108182.1038058662</v>
+        <v>152186.0528060574</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781397</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="E4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="F4" t="n">
         <v>43649.82185483626</v>
@@ -26433,13 +26435,13 @@
         <v>43649.82185483626</v>
       </c>
       <c r="H4" t="n">
-        <v>53347.16106869536</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="J4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="K4" t="n">
         <v>43649.82185483626</v>
@@ -26457,7 +26459,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="P4" t="n">
-        <v>31028.66177247689</v>
+        <v>43649.82185483626</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26485,31 +26487,31 @@
         <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>55372.66098629306</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26524,7 @@
         <v>-189375.9921945815</v>
       </c>
       <c r="C6" t="n">
-        <v>34323.70638946335</v>
+        <v>34323.70638946338</v>
       </c>
       <c r="D6" t="n">
         <v>34323.70638946338</v>
@@ -26531,37 +26533,37 @@
         <v>67951.3063894634</v>
       </c>
       <c r="F6" t="n">
-        <v>67951.30638946334</v>
+        <v>67951.30638946337</v>
       </c>
       <c r="G6" t="n">
         <v>67951.30638946337</v>
       </c>
       <c r="H6" t="n">
-        <v>11653.44537389336</v>
+        <v>67951.30638946337</v>
       </c>
       <c r="I6" t="n">
-        <v>-6365.891568759456</v>
+        <v>67951.30638946343</v>
       </c>
       <c r="J6" t="n">
-        <v>53097.8001016494</v>
+        <v>-106700.0423282428</v>
       </c>
       <c r="K6" t="n">
-        <v>67951.30638946334</v>
+        <v>67951.30638946338</v>
       </c>
       <c r="L6" t="n">
-        <v>67951.30638946337</v>
+        <v>67951.30638946338</v>
       </c>
       <c r="M6" t="n">
-        <v>67951.30638946337</v>
+        <v>67951.30638946341</v>
       </c>
       <c r="N6" t="n">
+        <v>67951.30638946343</v>
+      </c>
+      <c r="O6" t="n">
+        <v>67951.30638946338</v>
+      </c>
+      <c r="P6" t="n">
         <v>67951.3063894634</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67951.30638946337</v>
-      </c>
-      <c r="P6" t="n">
-        <v>51356.25389616692</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26805,31 +26807,31 @@
         <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>910.7345556956095</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>367.5259476891358</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.76990983096869</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.5152066078568</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>667.5152066078567</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>88.52591951400984</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35194,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P11" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M11" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N11" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O11" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35659,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P14" t="n">
         <v>667.515206607857</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
+        <v>640.5448952297621</v>
+      </c>
+      <c r="M17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956097</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>24.28142220712016</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850634</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36287,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36358,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36530,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36908,7 +36910,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158827</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,13 +37071,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37230,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>640.5448952297625</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37856,7 +37858,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158827</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176083.4573446011</v>
+        <v>171865.2237043162</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22099924.35763669</v>
+        <v>22099924.3576367</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>52.73509820686085</v>
+        <v>119.3112330440767</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>39.57637241135463</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -876,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>161.1551102058685</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>111.4200385268269</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>131.5152753337284</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>18.05677735225712</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>115.7469331998928</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1141,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>110.2608950565434</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.6481106064103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>54.49360828358922</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.9306587516072</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>170.5530127730587</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>35.47248331510104</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022511</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>231.6194654322198</v>
       </c>
       <c r="E14" t="n">
-        <v>424.6202690004476</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26.97779804715775</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>327.5057043920406</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>235.4185821004756</v>
       </c>
       <c r="X20" t="n">
-        <v>268.3727301458094</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2338,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>185.5573750678089</v>
+        <v>185.1447535886767</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>232.2523964141384</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>267.9601086666781</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>347.2486205873857</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>90.56442113466042</v>
       </c>
     </row>
     <row r="30">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>155.9995894427402</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>185.1447535886775</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>109.639149536349</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>85.95537284539671</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>28.60468344882636</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>108.3674421098555</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>52.73509820686085</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>59.82063420043769</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>18.05677735225757</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>173.306689271091</v>
+        <v>70.87562473588777</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2243.76125594652</v>
+        <v>1481.744616026685</v>
       </c>
       <c r="C2" t="n">
-        <v>1805.618783129943</v>
+        <v>1043.602143210108</v>
       </c>
       <c r="D2" t="n">
-        <v>1369.708998304388</v>
+        <v>607.6923583845523</v>
       </c>
       <c r="E2" t="n">
-        <v>935.934253462683</v>
+        <v>173.9176135428475</v>
       </c>
       <c r="F2" t="n">
-        <v>508.0668238718908</v>
+        <v>173.9176135428475</v>
       </c>
       <c r="G2" t="n">
-        <v>106.6689924951547</v>
+        <v>173.9176135428475</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X2" t="n">
-        <v>2670.060826431428</v>
+        <v>1908.044186511592</v>
       </c>
       <c r="Y2" t="n">
-        <v>2670.060826431428</v>
+        <v>1908.044186511592</v>
       </c>
     </row>
     <row r="3">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>193.303390838254</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1714.480606147276</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.225803160042</v>
+        <v>1608.123206251356</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.083330343465</v>
+        <v>1608.123206251356</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>2078.225803160042</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>2078.225803160042</v>
+        <v>2453.565240156953</v>
       </c>
       <c r="X5" t="n">
-        <v>2078.225803160042</v>
+        <v>2034.422776736264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2078.225803160042</v>
+        <v>2034.422776736264</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.1364226482438</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>749.5747111314687</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>583.6967183329914</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9387145837287</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>237.2316605454849</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>71.64038557131252</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262988</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.76646671971</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>1043.799427915185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216.583628727544</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>778.4411559109678</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>342.5313710854123</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>342.5313710854123</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0418768474983</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X8" t="n">
-        <v>1423.298891966343</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y8" t="n">
-        <v>1216.583628727544</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.1364226482438</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>749.5747111314687</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>583.6967183329914</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>413.9387145837287</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
         <v>53.40121652862856</v>
@@ -4962,19 +4962,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K10" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L10" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2145.748379262988</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1586.76646671971</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1762.411034605609</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="C11" t="n">
-        <v>1351.369965159541</v>
+        <v>1812.775890194162</v>
       </c>
       <c r="D11" t="n">
-        <v>915.4601803339856</v>
+        <v>1376.866105368606</v>
       </c>
       <c r="E11" t="n">
-        <v>481.6854354922808</v>
+        <v>943.0913605269016</v>
       </c>
       <c r="F11" t="n">
-        <v>53.81800590148855</v>
+        <v>515.2239309361094</v>
       </c>
       <c r="G11" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
         <v>53.81800590148855</v>
@@ -5047,13 +5047,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
@@ -5068,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>2181.553498026298</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X11" t="n">
-        <v>1762.411034605609</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y11" t="n">
-        <v>1762.411034605609</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
         <v>1599.468199913098</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516122</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348371</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363599</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E13" t="n">
-        <v>233.2795245870971</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F13" t="n">
-        <v>56.57247054885332</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H13" t="n">
         <v>53.40121652862856</v>
@@ -5199,19 +5199,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5226,25 +5226,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U13" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W13" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705994</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>771.4407337121271</v>
+        <v>1126.900576714082</v>
       </c>
       <c r="C14" t="n">
-        <v>771.4407337121271</v>
+        <v>688.7581038975059</v>
       </c>
       <c r="D14" t="n">
-        <v>771.4407337121271</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E14" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F14" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H14" t="n">
         <v>53.40121652862856</v>
@@ -5284,22 +5284,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5314,16 +5314,16 @@
         <v>2366.341725488303</v>
       </c>
       <c r="V14" t="n">
-        <v>2003.72477542213</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W14" t="n">
-        <v>1598.869320833163</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X14" t="n">
-        <v>1179.726857412474</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="Y14" t="n">
-        <v>771.4407337121271</v>
+        <v>1553.20014719899</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M15" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N15" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O15" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P15" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1075.159834655251</v>
+        <v>909.916778553892</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.159834655251</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="D17" t="n">
-        <v>1075.159834655251</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E17" t="n">
-        <v>1075.159834655251</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F17" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L17" t="n">
-        <v>1348.380717347871</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M17" t="n">
-        <v>2009.22077188965</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>2670.060826431428</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355598</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655251</v>
+        <v>1336.2163490388</v>
       </c>
     </row>
     <row r="18">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>743.9292024621484</v>
+        <v>1182.071675278725</v>
       </c>
       <c r="C20" t="n">
         <v>743.9292024621484</v>
@@ -5752,10 +5752,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L20" t="n">
         <v>1293.567921177998</v>
@@ -5791,13 +5791,13 @@
         <v>1828.15434655531</v>
       </c>
       <c r="W20" t="n">
-        <v>1423.298891966343</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.215326162495</v>
+        <v>1590.357798979072</v>
       </c>
       <c r="Y20" t="n">
-        <v>743.9292024621484</v>
+        <v>1182.071675278725</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L21" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M21" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N21" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O21" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
         <v>1599.468199913098</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H22" t="n">
         <v>53.40121652862856</v>
@@ -5922,7 +5922,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L23" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M23" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X23" t="n">
-        <v>1152.215326162495</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y23" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6138,13 +6138,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6153,7 +6153,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
         <v>1292.433105213328</v>
@@ -6171,7 +6171,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S25" t="n">
         <v>2651.821657388744</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1789.095648603258</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C26" t="n">
-        <v>1350.953175786681</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D26" t="n">
-        <v>915.0433909611256</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E26" t="n">
-        <v>481.2686461194209</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L26" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2215.395219088166</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V26" t="n">
-        <v>2215.395219088166</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W26" t="n">
-        <v>2215.395219088166</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X26" t="n">
-        <v>2215.395219088166</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y26" t="n">
-        <v>2215.395219088166</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C28" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D28" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V28" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W28" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X28" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y28" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.958062865641</v>
+        <v>1754.583695154438</v>
       </c>
       <c r="C29" t="n">
-        <v>770.8155900490646</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D29" t="n">
-        <v>770.8155900490646</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E29" t="n">
-        <v>770.8155900490646</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F29" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.081325612186</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M29" t="n">
-        <v>1375.081325612186</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U29" t="n">
-        <v>2327.186649932282</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V29" t="n">
-        <v>1964.569699866109</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W29" t="n">
-        <v>1559.714245277142</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X29" t="n">
-        <v>1208.958062865641</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y29" t="n">
-        <v>1208.958062865641</v>
+        <v>1754.583695154438</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6612,13 +6612,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>744.3459918350084</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="C32" t="n">
-        <v>744.3459918350084</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="D32" t="n">
-        <v>744.3459918350084</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="E32" t="n">
-        <v>744.3459918350084</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="F32" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M32" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N32" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X32" t="n">
-        <v>1152.632115535355</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y32" t="n">
-        <v>744.3459918350084</v>
+        <v>1339.64701815018</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6864,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1437.776784721425</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C35" t="n">
-        <v>1437.776784721425</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D35" t="n">
-        <v>1001.86699989587</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>568.092255054165</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
-        <v>140.2248254633727</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6943,22 +6943,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6967,22 +6967,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W35" t="n">
-        <v>2265.205371842461</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X35" t="n">
-        <v>1846.062908421772</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y35" t="n">
-        <v>1437.776784721425</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
         <v>1716.640978007438</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862855</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2078.225803160042</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C38" t="n">
-        <v>1640.083330343465</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D38" t="n">
-        <v>1204.173545517909</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E38" t="n">
-        <v>770.3988006762045</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F38" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G38" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M38" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7204,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>2078.225803160042</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W38" t="n">
-        <v>2078.225803160042</v>
+        <v>1997.657360068092</v>
       </c>
       <c r="X38" t="n">
-        <v>2078.225803160042</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="Y38" t="n">
-        <v>2078.225803160042</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2190.493479979994</v>
+        <v>2243.76125594652</v>
       </c>
       <c r="C41" t="n">
-        <v>1752.351007163417</v>
+        <v>1805.618783129943</v>
       </c>
       <c r="D41" t="n">
-        <v>1316.441222337862</v>
+        <v>1369.708998304388</v>
       </c>
       <c r="E41" t="n">
-        <v>882.6664774961569</v>
+        <v>935.934253462683</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>508.0668238718908</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862857</v>
+        <v>106.6689924951547</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L41" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="M41" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="N41" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
-      <c r="M41" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1954.407975719777</v>
-      </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7447,16 +7447,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>2609.635943400683</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>2609.635943400683</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X41" t="n">
-        <v>2190.493479979994</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y41" t="n">
-        <v>2190.493479979994</v>
+        <v>2670.060826431428</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7563,10 +7563,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.512437976118</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C44" t="n">
-        <v>1351.369965159541</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D44" t="n">
-        <v>915.4601803339856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E44" t="n">
-        <v>481.6854354922808</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F44" t="n">
-        <v>53.81800590148856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>2411.351690725274</v>
+        <v>2598.469286294167</v>
       </c>
       <c r="U44" t="n">
-        <v>2152.129388042291</v>
+        <v>2339.246983611184</v>
       </c>
       <c r="V44" t="n">
-        <v>1789.512437976118</v>
+        <v>1976.630033545011</v>
       </c>
       <c r="W44" t="n">
-        <v>1789.512437976118</v>
+        <v>1571.774578956044</v>
       </c>
       <c r="X44" t="n">
-        <v>1789.512437976118</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1789.512437976118</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7797,13 +7797,13 @@
         <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>71.64038557131298</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8388,7 +8388,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>226.6534083847602</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8628,7 +8628,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.515206607857</v>
@@ -8768,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8932,7 +8932,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L20" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L20" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10591,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L44" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>233.5037548043551</v>
+        <v>166.9276199671392</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22716,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22764,13 +22764,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>81.78272691405314</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>247.5707420386848</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>269.2916247093486</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>109.39854077914</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>304.6901437299391</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.5551518569328</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23190,13 +23190,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>26.83038933680371</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>226.8308402899101</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23320,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444081</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>199.9312215450801</v>
       </c>
       <c r="E14" t="n">
-        <v>4.816728392840105</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23554,13 +23554,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>406.7832500412532</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,16 +23743,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>96.08305090284369</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>165.3883179426014</v>
       </c>
       <c r="X20" t="n">
-        <v>146.578308640673</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>229.3936637186735</v>
+        <v>229.8062851978057</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.37768324201491</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9909301198043</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24688,19 +24688,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>67.70241819909671</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>313.6388413286827</v>
       </c>
     </row>
     <row r="30">
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>267.5891658521442</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>229.8062851978049</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>312.3974252437097</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>311.428480217572</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>330.3860971166854</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>292.4394579332214</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>233.5037548043551</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25687,13 +25687,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>299.1701463650741</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>44.55986558460071</v>
+        <v>146.990930119804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482780.8320297</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482780.8320297</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482780.8320296999</v>
+        <v>482780.8320297</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482780.8320297</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482780.8320297</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482780.8320297</v>
+        <v>482780.8320296999</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>152186.0528060573</v>
       </c>
       <c r="E2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="F2" t="n">
         <v>152186.0528060573</v>
@@ -26334,7 +26334,7 @@
         <v>152186.0528060573</v>
       </c>
       <c r="I2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="J2" t="n">
         <v>152186.0528060573</v>
@@ -26343,16 +26343,16 @@
         <v>152186.0528060574</v>
       </c>
       <c r="L2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="M2" t="n">
         <v>152186.0528060574</v>
       </c>
       <c r="N2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="O2" t="n">
-        <v>152186.0528060574</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="P2" t="n">
         <v>152186.0528060574</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>43649.82185483625</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43649.82185483625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43649.82185483625</v>
+      </c>
+      <c r="E4" t="n">
         <v>43649.82185483626</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43649.82185483626</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43649.82185483626</v>
-      </c>
-      <c r="E4" t="n">
-        <v>43649.82185483625</v>
       </c>
       <c r="F4" t="n">
         <v>43649.82185483626</v>
@@ -26435,7 +26435,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="H4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="I4" t="n">
         <v>43649.82185483626</v>
@@ -26444,7 +26444,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="K4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="L4" t="n">
         <v>43649.82185483626</v>
@@ -26490,28 +26490,28 @@
         <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189375.9921945815</v>
+        <v>-189870.8824231628</v>
       </c>
       <c r="C6" t="n">
-        <v>34323.70638946338</v>
+        <v>33828.81616088212</v>
       </c>
       <c r="D6" t="n">
-        <v>34323.70638946338</v>
+        <v>33828.81616088209</v>
       </c>
       <c r="E6" t="n">
-        <v>67951.3063894634</v>
+        <v>67456.41616088212</v>
       </c>
       <c r="F6" t="n">
-        <v>67951.30638946337</v>
+        <v>67456.41616088212</v>
       </c>
       <c r="G6" t="n">
-        <v>67951.30638946337</v>
+        <v>67456.4161608821</v>
       </c>
       <c r="H6" t="n">
-        <v>67951.30638946337</v>
+        <v>67456.41616088212</v>
       </c>
       <c r="I6" t="n">
-        <v>67951.30638946343</v>
+        <v>67456.4161608821</v>
       </c>
       <c r="J6" t="n">
-        <v>-106700.0423282428</v>
+        <v>-107194.932556824</v>
       </c>
       <c r="K6" t="n">
-        <v>67951.30638946338</v>
+        <v>67456.41616088215</v>
       </c>
       <c r="L6" t="n">
-        <v>67951.30638946338</v>
+        <v>67456.4161608821</v>
       </c>
       <c r="M6" t="n">
-        <v>67951.30638946341</v>
+        <v>67456.41616088213</v>
       </c>
       <c r="N6" t="n">
-        <v>67951.30638946343</v>
+        <v>67456.4161608821</v>
       </c>
       <c r="O6" t="n">
-        <v>67951.30638946338</v>
+        <v>67456.41616088209</v>
       </c>
       <c r="P6" t="n">
-        <v>67951.3063894634</v>
+        <v>67456.41616088215</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>226.6534083847602</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.515206607857</v>
@@ -35488,13 +35488,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35652,7 +35652,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L20" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L20" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36360,7 +36360,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,10 +36521,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37232,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37311,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -38019,25 +38019,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O44" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L44" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
